--- a/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H2">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I2">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J2">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N2">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O2">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P2">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q2">
-        <v>909.7788213109573</v>
+        <v>915.189277105085</v>
       </c>
       <c r="R2">
-        <v>909.7788213109573</v>
+        <v>3660.75710842034</v>
       </c>
       <c r="S2">
-        <v>0.03991050715071677</v>
+        <v>0.03755615465247778</v>
       </c>
       <c r="T2">
-        <v>0.03991050715071677</v>
+        <v>0.02259112129703067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H3">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I3">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J3">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N3">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O3">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P3">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q3">
-        <v>21.55139526815407</v>
+        <v>33.62960765560234</v>
       </c>
       <c r="R3">
-        <v>21.55139526815407</v>
+        <v>201.777645933614</v>
       </c>
       <c r="S3">
-        <v>0.0009454244205401217</v>
+        <v>0.0013800410227828</v>
       </c>
       <c r="T3">
-        <v>0.0009454244205401217</v>
+        <v>0.001245202328182483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H4">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I4">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J4">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N4">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O4">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P4">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q4">
-        <v>8.874336799209177</v>
+        <v>11.17804233432867</v>
       </c>
       <c r="R4">
-        <v>8.874336799209177</v>
+        <v>67.06825400597201</v>
       </c>
       <c r="S4">
-        <v>0.0003893026238754907</v>
+        <v>0.0004587076106790836</v>
       </c>
       <c r="T4">
-        <v>0.0003893026238754907</v>
+        <v>0.0004138889897786146</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H5">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I5">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J5">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N5">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O5">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P5">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q5">
-        <v>11.13181569982751</v>
+        <v>12.747028213157</v>
       </c>
       <c r="R5">
-        <v>11.13181569982751</v>
+        <v>76.482169278942</v>
       </c>
       <c r="S5">
-        <v>0.0004883345266800578</v>
+        <v>0.0005230932823504362</v>
       </c>
       <c r="T5">
-        <v>0.0004883345266800578</v>
+        <v>0.0004719837760517756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H6">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I6">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J6">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N6">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O6">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P6">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q6">
-        <v>586.7799110731077</v>
+        <v>605.0477432409301</v>
       </c>
       <c r="R6">
-        <v>586.7799110731077</v>
+        <v>3630.28645944558</v>
       </c>
       <c r="S6">
-        <v>0.02574107386126528</v>
+        <v>0.02482903502668539</v>
       </c>
       <c r="T6">
-        <v>0.02574107386126528</v>
+        <v>0.02240308201810537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.60758290876539</v>
+        <v>65.652523</v>
       </c>
       <c r="H7">
-        <v>65.60758290876539</v>
+        <v>131.305046</v>
       </c>
       <c r="I7">
-        <v>0.08152006478629474</v>
+        <v>0.07819491960606291</v>
       </c>
       <c r="J7">
-        <v>0.08152006478629474</v>
+        <v>0.05521457487889056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N7">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O7">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P7">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q7">
-        <v>320.1720190776388</v>
+        <v>327.705618994868</v>
       </c>
       <c r="R7">
-        <v>320.1720190776388</v>
+        <v>1310.822475979472</v>
       </c>
       <c r="S7">
-        <v>0.01404542220321702</v>
+        <v>0.01344788801108741</v>
       </c>
       <c r="T7">
-        <v>0.01404542220321702</v>
+        <v>0.008089296469741655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H8">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J8">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N8">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O8">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P8">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q8">
-        <v>3609.662710115375</v>
+        <v>3861.035115972039</v>
       </c>
       <c r="R8">
-        <v>3609.662710115375</v>
+        <v>23166.21069583223</v>
       </c>
       <c r="S8">
-        <v>0.1583499923598411</v>
+        <v>0.158443324852727</v>
       </c>
       <c r="T8">
-        <v>0.1583499923598411</v>
+        <v>0.1429624146923933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H9">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J9">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N9">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O9">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P9">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q9">
-        <v>85.5078905203745</v>
+        <v>141.8778599606926</v>
       </c>
       <c r="R9">
-        <v>85.5078905203745</v>
+        <v>1276.900739646233</v>
       </c>
       <c r="S9">
-        <v>0.003751091140084568</v>
+        <v>0.005822169231812944</v>
       </c>
       <c r="T9">
-        <v>0.003751091140084568</v>
+        <v>0.007879959975291529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H10">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J10">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N10">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O10">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P10">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q10">
-        <v>35.21005531317064</v>
+        <v>47.15834752477046</v>
       </c>
       <c r="R10">
-        <v>35.21005531317064</v>
+        <v>424.4251277229341</v>
       </c>
       <c r="S10">
-        <v>0.001544607470998847</v>
+        <v>0.00193521300686329</v>
       </c>
       <c r="T10">
-        <v>0.001544607470998847</v>
+        <v>0.002619195772328631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H11">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J11">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N11">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O11">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P11">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q11">
-        <v>44.16688879352386</v>
+        <v>53.77764445729433</v>
       </c>
       <c r="R11">
-        <v>44.16688879352386</v>
+        <v>483.998800115649</v>
       </c>
       <c r="S11">
-        <v>0.001937529089189863</v>
+        <v>0.002206845712258279</v>
       </c>
       <c r="T11">
-        <v>0.001937529089189863</v>
+        <v>0.002986834492755546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H12">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J12">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N12">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O12">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P12">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q12">
-        <v>2328.123621292197</v>
+        <v>2552.59828970289</v>
       </c>
       <c r="R12">
-        <v>2328.123621292197</v>
+        <v>22973.38460732601</v>
       </c>
       <c r="S12">
-        <v>0.1021309710215561</v>
+        <v>0.1047496714963417</v>
       </c>
       <c r="T12">
-        <v>0.1021309710215561</v>
+        <v>0.1417724538658047</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>260.306395333893</v>
+        <v>276.9773456666667</v>
       </c>
       <c r="H13">
-        <v>260.306395333893</v>
+        <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3234411827275337</v>
+        <v>0.3298916825649746</v>
       </c>
       <c r="J13">
-        <v>0.3234411827275337</v>
+        <v>0.3494120033757542</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N13">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O13">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P13">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q13">
-        <v>1270.323040078644</v>
+        <v>1382.536852532697</v>
       </c>
       <c r="R13">
-        <v>1270.323040078644</v>
+        <v>8295.221115196184</v>
       </c>
       <c r="S13">
-        <v>0.05572699164586322</v>
+        <v>0.05673445826497147</v>
       </c>
       <c r="T13">
-        <v>0.05572699164586322</v>
+        <v>0.05119114457718054</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H14">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I14">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J14">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N14">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O14">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P14">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q14">
-        <v>2888.800213980394</v>
+        <v>3055.997885484514</v>
       </c>
       <c r="R14">
-        <v>2888.800213980394</v>
+        <v>18335.98731290708</v>
       </c>
       <c r="S14">
-        <v>0.1267269350488101</v>
+        <v>0.1254074234435365</v>
       </c>
       <c r="T14">
-        <v>0.1267269350488101</v>
+        <v>0.113154328795511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H15">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I15">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J15">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N15">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O15">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P15">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q15">
-        <v>68.43166031553532</v>
+        <v>112.2959069300742</v>
       </c>
       <c r="R15">
-        <v>68.43166031553532</v>
+        <v>1010.663162370668</v>
       </c>
       <c r="S15">
-        <v>0.003001984882900571</v>
+        <v>0.004608229743301357</v>
       </c>
       <c r="T15">
-        <v>0.003001984882900571</v>
+        <v>0.006236965036286892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H16">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I16">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J16">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N16">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O16">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P16">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q16">
-        <v>28.17848189469697</v>
+        <v>37.32569271967379</v>
       </c>
       <c r="R16">
-        <v>28.17848189469697</v>
+        <v>335.931234477064</v>
       </c>
       <c r="S16">
-        <v>0.001236143859157014</v>
+        <v>0.001531715376654235</v>
       </c>
       <c r="T16">
-        <v>0.001236143859157014</v>
+        <v>0.002073085714448664</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H17">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I17">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J17">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N17">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O17">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P17">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q17">
-        <v>35.34660383642933</v>
+        <v>42.56484668268933</v>
       </c>
       <c r="R17">
-        <v>35.34660383642933</v>
+        <v>383.083620144204</v>
       </c>
       <c r="S17">
-        <v>0.001550597631119395</v>
+        <v>0.001746711860338518</v>
       </c>
       <c r="T17">
-        <v>0.001550597631119395</v>
+        <v>0.002364070675346653</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H18">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I18">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J18">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N18">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O18">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P18">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q18">
-        <v>1863.189044371058</v>
+        <v>2020.37400373644</v>
       </c>
       <c r="R18">
-        <v>1863.189044371058</v>
+        <v>18183.36603362796</v>
       </c>
       <c r="S18">
-        <v>0.08173505245083316</v>
+        <v>0.08290905546903495</v>
       </c>
       <c r="T18">
-        <v>0.08173505245083316</v>
+        <v>0.1122124783174304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>208.32228131281</v>
+        <v>219.2267506666667</v>
       </c>
       <c r="H19">
-        <v>208.32228131281</v>
+        <v>657.680252</v>
       </c>
       <c r="I19">
-        <v>0.2588488268599219</v>
+        <v>0.2611082919673688</v>
       </c>
       <c r="J19">
-        <v>0.2588488268599219</v>
+        <v>0.2765585682093407</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N19">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O19">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P19">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q19">
-        <v>1016.635005736067</v>
+        <v>1094.273833580677</v>
       </c>
       <c r="R19">
-        <v>1016.635005736067</v>
+        <v>6565.643001484063</v>
       </c>
       <c r="S19">
-        <v>0.04459811298710173</v>
+        <v>0.04490515607450327</v>
       </c>
       <c r="T19">
-        <v>0.04459811298710173</v>
+        <v>0.04051763967031703</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H20">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I20">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J20">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N20">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O20">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P20">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q20">
-        <v>1879.897036816106</v>
+        <v>1898.811473583628</v>
       </c>
       <c r="R20">
-        <v>1879.897036816106</v>
+        <v>11392.86884150177</v>
       </c>
       <c r="S20">
-        <v>0.08246800472047527</v>
+        <v>0.07792055604429651</v>
       </c>
       <c r="T20">
-        <v>0.08246800472047527</v>
+        <v>0.07030722724747758</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H21">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I21">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J21">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N21">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O21">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P21">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q21">
-        <v>44.53214688541083</v>
+        <v>69.77385603835191</v>
       </c>
       <c r="R21">
-        <v>44.53214688541083</v>
+        <v>627.964704345167</v>
       </c>
       <c r="S21">
-        <v>0.001953552363579903</v>
+        <v>0.002863274071965747</v>
       </c>
       <c r="T21">
-        <v>0.001953552363579903</v>
+        <v>0.003875271258364716</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H22">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I22">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J22">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N22">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O22">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P22">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q22">
-        <v>18.33724753946471</v>
+        <v>23.19191840158512</v>
       </c>
       <c r="R22">
-        <v>18.33724753946471</v>
+        <v>208.727265614266</v>
       </c>
       <c r="S22">
-        <v>0.0008044250227694935</v>
+        <v>0.000951714903099291</v>
       </c>
       <c r="T22">
-        <v>0.0008044250227694935</v>
+        <v>0.001288089549739116</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H23">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I23">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J23">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N23">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O23">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P23">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q23">
-        <v>23.0019284449095</v>
+        <v>26.44721046317233</v>
       </c>
       <c r="R23">
-        <v>23.0019284449095</v>
+        <v>238.024894168551</v>
       </c>
       <c r="S23">
-        <v>0.001009056935792378</v>
+        <v>0.001085300659797263</v>
       </c>
       <c r="T23">
-        <v>0.001009056935792378</v>
+        <v>0.001468889930857764</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H24">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I24">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J24">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N24">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O24">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P24">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q24">
-        <v>1212.476912245602</v>
+        <v>1255.33769425911</v>
       </c>
       <c r="R24">
-        <v>1212.476912245602</v>
+        <v>11298.03924833199</v>
       </c>
       <c r="S24">
-        <v>0.05318937673942344</v>
+        <v>0.05151465141266794</v>
       </c>
       <c r="T24">
-        <v>0.05318937673942344</v>
+        <v>0.06972201856566723</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>135.566467160813</v>
+        <v>136.2141876666667</v>
       </c>
       <c r="H25">
-        <v>135.566467160813</v>
+        <v>408.642563</v>
       </c>
       <c r="I25">
-        <v>0.1684467967851636</v>
+        <v>0.1622368336674611</v>
       </c>
       <c r="J25">
-        <v>0.1684467967851636</v>
+        <v>0.1718366969192125</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N25">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O25">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P25">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q25">
-        <v>661.5788539330704</v>
+        <v>679.9152971651694</v>
       </c>
       <c r="R25">
-        <v>661.5788539330704</v>
+        <v>4079.491782991016</v>
       </c>
       <c r="S25">
-        <v>0.02902238100312306</v>
+        <v>0.02790133657563438</v>
       </c>
       <c r="T25">
-        <v>0.02902238100312306</v>
+        <v>0.02517520036710609</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H26">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I26">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J26">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N26">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O26">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P26">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q26">
-        <v>855.7209680274793</v>
+        <v>926.5382753405951</v>
       </c>
       <c r="R26">
-        <v>855.7209680274793</v>
+        <v>5559.229652043569</v>
       </c>
       <c r="S26">
-        <v>0.037539077645561</v>
+        <v>0.03802187769310577</v>
       </c>
       <c r="T26">
-        <v>0.037539077645561</v>
+        <v>0.03430690091360886</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H27">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I27">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J27">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N27">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O27">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P27">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q27">
-        <v>20.27083988901108</v>
+        <v>34.04663871954967</v>
       </c>
       <c r="R27">
-        <v>20.27083988901108</v>
+        <v>306.419748475947</v>
       </c>
       <c r="S27">
-        <v>0.0008892485529347064</v>
+        <v>0.001397154513428183</v>
       </c>
       <c r="T27">
-        <v>0.0008892485529347064</v>
+        <v>0.001890965584606303</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H28">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I28">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J28">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N28">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O28">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P28">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q28">
-        <v>8.347035453604594</v>
+        <v>11.31665801296734</v>
       </c>
       <c r="R28">
-        <v>8.347035453604594</v>
+        <v>101.849922116706</v>
       </c>
       <c r="S28">
-        <v>0.0003661707772866578</v>
+        <v>0.0004643959114431387</v>
       </c>
       <c r="T28">
-        <v>0.0003661707772866578</v>
+        <v>0.0006285322616294801</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H29">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I29">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J29">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N29">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O29">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P29">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q29">
-        <v>10.47037794618441</v>
+        <v>12.905100433099</v>
       </c>
       <c r="R29">
-        <v>10.47037794618441</v>
+        <v>116.145903897891</v>
       </c>
       <c r="S29">
-        <v>0.0004593183355156073</v>
+        <v>0.0005295800112565929</v>
       </c>
       <c r="T29">
-        <v>0.0004593183355156073</v>
+        <v>0.0007167550660695846</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H30">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I30">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J30">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N30">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O30">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P30">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q30">
-        <v>551.9142254806745</v>
+        <v>612.55076577651</v>
       </c>
       <c r="R30">
-        <v>551.9142254806745</v>
+        <v>5512.956891988591</v>
       </c>
       <c r="S30">
-        <v>0.02421157332601833</v>
+        <v>0.02513693272802058</v>
       </c>
       <c r="T30">
-        <v>0.02421157332601833</v>
+        <v>0.03402134426393496</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>61.7092671774153</v>
+        <v>66.466661</v>
       </c>
       <c r="H31">
-        <v>61.7092671774153</v>
+        <v>199.399983</v>
       </c>
       <c r="I31">
-        <v>0.07667625044521445</v>
+        <v>0.07916459224847211</v>
       </c>
       <c r="J31">
-        <v>0.07667625044521445</v>
+        <v>0.08384891234266049</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N31">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O31">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P31">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q31">
-        <v>301.1478215173636</v>
+        <v>331.769401848076</v>
       </c>
       <c r="R31">
-        <v>301.1478215173636</v>
+        <v>1990.616411088456</v>
       </c>
       <c r="S31">
-        <v>0.01321086180789815</v>
+        <v>0.01361465139121784</v>
       </c>
       <c r="T31">
-        <v>0.01321086180789815</v>
+        <v>0.01228441425281132</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H32">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I32">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J32">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.8669766660373</v>
+        <v>13.939895</v>
       </c>
       <c r="N32">
-        <v>13.8669766660373</v>
+        <v>27.87979</v>
       </c>
       <c r="O32">
-        <v>0.4895789429920396</v>
+        <v>0.4802889349037177</v>
       </c>
       <c r="P32">
-        <v>0.4895789429920396</v>
+        <v>0.4091514124048364</v>
       </c>
       <c r="Q32">
-        <v>1016.323005933052</v>
+        <v>1046.37602586216</v>
       </c>
       <c r="R32">
-        <v>1016.323005933052</v>
+        <v>4185.504103448639</v>
       </c>
       <c r="S32">
-        <v>0.04458442606663536</v>
+        <v>0.04293959821757403</v>
       </c>
       <c r="T32">
-        <v>0.04458442606663536</v>
+        <v>0.02582941945881504</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H33">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I33">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J33">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.32848939577798</v>
+        <v>0.5122363333333334</v>
       </c>
       <c r="N33">
-        <v>0.32848939577798</v>
+        <v>1.536709</v>
       </c>
       <c r="O33">
-        <v>0.01159744442081292</v>
+        <v>0.01764872999083942</v>
       </c>
       <c r="P33">
-        <v>0.01159744442081292</v>
+        <v>0.02255205859890708</v>
       </c>
       <c r="Q33">
-        <v>24.07527885670062</v>
+        <v>38.450204881424</v>
       </c>
       <c r="R33">
-        <v>24.07527885670062</v>
+        <v>230.701229288544</v>
       </c>
       <c r="S33">
-        <v>0.001056143060773048</v>
+        <v>0.001577861407548383</v>
       </c>
       <c r="T33">
-        <v>0.001056143060773048</v>
+        <v>0.001423694416175165</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H34">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I34">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J34">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.135263888803066</v>
+        <v>0.1702606666666667</v>
       </c>
       <c r="N34">
-        <v>0.135263888803066</v>
+        <v>0.5107820000000001</v>
       </c>
       <c r="O34">
-        <v>0.00477554360262163</v>
+        <v>0.005866207331499287</v>
       </c>
       <c r="P34">
-        <v>0.00477554360262163</v>
+        <v>0.007496009716391951</v>
       </c>
       <c r="Q34">
-        <v>9.913610253575975</v>
+        <v>12.780345888352</v>
       </c>
       <c r="R34">
-        <v>9.913610253575975</v>
+        <v>76.682075330112</v>
       </c>
       <c r="S34">
-        <v>0.0004348938485341259</v>
+        <v>0.000524460522760248</v>
       </c>
       <c r="T34">
-        <v>0.0004348938485341259</v>
+        <v>0.0004732174284674478</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H35">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I35">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J35">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.169672699500415</v>
+        <v>0.194159</v>
       </c>
       <c r="N35">
-        <v>0.169672699500415</v>
+        <v>0.5824769999999999</v>
       </c>
       <c r="O35">
-        <v>0.005990359894342935</v>
+        <v>0.006689607010093757</v>
       </c>
       <c r="P35">
-        <v>0.005990359894342935</v>
+        <v>0.008548173685789306</v>
       </c>
       <c r="Q35">
-        <v>12.43546247563675</v>
+        <v>14.574236233872</v>
       </c>
       <c r="R35">
-        <v>12.43546247563675</v>
+        <v>87.44541740323199</v>
       </c>
       <c r="S35">
-        <v>0.0005455233760456336</v>
+        <v>0.0005980754840926675</v>
       </c>
       <c r="T35">
-        <v>0.0005455233760456336</v>
+        <v>0.0005396397447079842</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H36">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I36">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J36">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.94378187791326</v>
+        <v>9.215910000000001</v>
       </c>
       <c r="N36">
-        <v>8.94378187791326</v>
+        <v>27.64773</v>
       </c>
       <c r="O36">
-        <v>0.3157636580484281</v>
+        <v>0.317527470477254</v>
       </c>
       <c r="P36">
-        <v>0.3157636580484281</v>
+        <v>0.4057458029378115</v>
       </c>
       <c r="Q36">
-        <v>655.4976979829232</v>
+        <v>691.7776124212801</v>
       </c>
       <c r="R36">
-        <v>655.4976979829232</v>
+        <v>4150.66567452768</v>
       </c>
       <c r="S36">
-        <v>0.02875561064933174</v>
+        <v>0.02838812434450351</v>
       </c>
       <c r="T36">
-        <v>0.02875561064933174</v>
+        <v>0.0256144259068689</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>73.29088599551829</v>
+        <v>75.063408</v>
       </c>
       <c r="H37">
-        <v>73.29088599551829</v>
+        <v>150.126816</v>
       </c>
       <c r="I37">
-        <v>0.09106687839587146</v>
+        <v>0.08940367994566026</v>
       </c>
       <c r="J37">
-        <v>0.09106687839587146</v>
+        <v>0.06312924427414179</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.88010691573371</v>
+        <v>4.991516</v>
       </c>
       <c r="N37">
-        <v>4.88010691573371</v>
+        <v>9.983032</v>
       </c>
       <c r="O37">
-        <v>0.1722940510417547</v>
+        <v>0.1719790502865958</v>
       </c>
       <c r="P37">
-        <v>0.1722940510417547</v>
+        <v>0.1465065426562639</v>
       </c>
       <c r="Q37">
-        <v>357.6673596069797</v>
+        <v>374.6802020465279</v>
       </c>
       <c r="R37">
-        <v>357.6673596069797</v>
+        <v>1498.720808186112</v>
       </c>
       <c r="S37">
-        <v>0.01569028139455155</v>
+        <v>0.01537555996918142</v>
       </c>
       <c r="T37">
-        <v>0.01569028139455155</v>
+        <v>0.009248847319107256</v>
       </c>
     </row>
   </sheetData>
